--- a/biology/Médecine/Isogreffe/Isogreffe.xlsx
+++ b/biology/Médecine/Isogreffe/Isogreffe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Une isogreffe est une greffe où le donneur et le receveur sont isogéniques, c'est-à-dire génétiquement identiques[1]. C'est le cas quand le donneur est le jumeau monozygote (ou jumeau vrai) du receveur. Le pourcentage de réussite est maximal. En effet, issu d'une même cellule œuf, les jumeaux monozygotes possèdent le même complexe majeur d'histocompatibilité (CMH).</t>
+Une isogreffe est une greffe où le donneur et le receveur sont isogéniques, c'est-à-dire génétiquement identiques. C'est le cas quand le donneur est le jumeau monozygote (ou jumeau vrai) du receveur. Le pourcentage de réussite est maximal. En effet, issu d'une même cellule œuf, les jumeaux monozygotes possèdent le même complexe majeur d'histocompatibilité (CMH).</t>
         </is>
       </c>
     </row>
